--- a/interconnections_datasets/bibtex_mapping_of_ids.xlsx
+++ b/interconnections_datasets/bibtex_mapping_of_ids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Hummel\Documents\Studium - PhD Informatik\Survey Paper Interaction\earXplore\interconnections_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF1217-DBD8-472F-9147-90C13F7DAD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF424723-8D8D-4BAE-82BD-A5C630EE0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{17DE1003-BB49-4716-8956-AF1B579FC5E0}"/>
+    <workbookView xWindow="1845" yWindow="-20985" windowWidth="16455" windowHeight="19350" xr2:uid="{F5FF20EA-3020-426A-B866-254E9E26798A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,23 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID714_brewster_multimodal_2003,
+	address = {New York, NY, USA},
+	series = {{CHI} '03},
+	title = {Multimodal 'eyes-free' interaction techniques for wearable devices},
+	isbn = {978-1-58113-630-2},
+	url = {https://dl.acm.org/doi/10.1145/642611.642694},
+	doi = {10.1145/642611.642694},
+	urldate = {2025-01-08},
+	booktitle = {Proceedings of the {SIGCHI} {Conference} on {Human} {Factors} in {Computing} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Brewster, Stephen and Lumsden, Joanna and Bell, Marek and Hall, Malcolm and Tasker, Stuart},
+	month = apr,
+	year = {2003},
+	pages = {473--480},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID32_metzger_freedigiter_2004,
 	title = {{FreeDigiter}: a contact-free device for gesture control},
 	volume = {1},
@@ -104,6 +121,77 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID61_manabe_full-time_2006,
+	address = {New York, NY, USA},
+	series = {{CHI} {EA} '06},
+	title = {Full-time wearable headphone-type gaze detector},
+	isbn = {978-1-59593-298-3},
+	url = {https://dl.acm.org/doi/10.1145/1125451.1125655},
+	doi = {10.1145/1125451.1125655},
+	urldate = {2024-10-02},
+	booktitle = {{CHI} '06 {Extended} {Abstracts} on {Human} {Factors} in {Computing} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Manabe, Hiroyuki and Fukumoto, Masaaki},
+	month = apr,
+	year = {2006},
+	pages = {1073--1078},
+}</t>
+  </si>
+  <si>
+    <t>article{ID623_simpson_tooth-click_2008,
+	title = {Tooth-{Click} {Control} of a {Hands}-{Free} {Computer} {Interface}},
+	volume = {55},
+	issn = {1558-2531},
+	url = {https://ieeexplore.ieee.org/abstract/document/4473368},
+	doi = {10.1109/TBME.2008.921161},
+	number = {8},
+	urldate = {2024-12-18},
+	journal = {IEEE Transactions on Biomedical Engineering},
+	author = {Simpson, Tyler and Broughton, Colin and Gauthier, Michel J. A. and Prochazka, Arthur},
+	month = aug,
+	year = {2008},
+	note = {Conference Name: IEEE Transactions on Biomedical Engineering},
+	keywords = {Accelerometers, Tracking, Neuroscience, assistive technology, Assistive technology (AT), Cameras, computer interfaces, Computer interfaces, Computerized monitoring, Head, Mice, spinal cord injury, Spinal cord injury, Teeth, tooth-click},
+	pages = {2050--2056},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID184_tamaki_brainy_2009,
+	address = {New York, NY, USA},
+	series = {{CHI} {EA} '09},
+	title = {Brainy hand: an ear-worn hand gesture interaction device},
+	isbn = {978-1-60558-247-4},
+	shorttitle = {Brainy hand},
+	url = {https://dl.acm.org/doi/10.1145/1520340.1520649},
+	doi = {10.1145/1520340.1520649},
+	urldate = {2024-09-30},
+	booktitle = {{CHI} '09 {Extended} {Abstracts} on {Human} {Factors} in {Computing} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Tamaki, Emi and Miyaki, Takashi and Rekimoto, Jun},
+	month = apr,
+	year = {2009},
+	pages = {4255--4260},
+}</t>
+  </si>
+  <si>
+    <t>article{ID624_simpson_evaluation_2010,
+	title = {Evaluation of {Tooth}-{Click} {Triggering} and {Speech} {Recognition} in {Assistive} {Technology} for {Computer} {Access}},
+	volume = {24},
+	issn = {1545-9683},
+	url = {https://doi.org/10.1177/1545968309341647},
+	doi = {10.1177/1545968309341647},
+	language = {en},
+	number = {2},
+	urldate = {2024-12-18},
+	journal = {Neurorehabil Neural Repair},
+	author = {Simpson, Tyler and Gauthier, Michel and Prochazka, Arthur},
+	month = feb,
+	year = {2010},
+	note = {Publisher: SAGE Publications Inc STM},
+	pages = {188--194},
+}</t>
+  </si>
+  <si>
     <t>article{ID253_gamper_head_2011,
 	title = {Head orientation tracking using binaural headset microphones},
 	language = {en},
@@ -113,23 +201,6 @@
 }</t>
   </si>
   <si>
-    <t>inproceedings{ID714_brewster_multimodal_2003,
-	address = {New York, NY, USA},
-	series = {{CHI} '03},
-	title = {Multimodal 'eyes-free' interaction techniques for wearable devices},
-	isbn = {978-1-58113-630-2},
-	url = {https://dl.acm.org/doi/10.1145/642611.642694},
-	doi = {10.1145/642611.642694},
-	urldate = {2025-01-08},
-	booktitle = {Proceedings of the {SIGCHI} {Conference} on {Human} {Factors} in {Computing} {Systems}},
-	publisher = {Association for Computing Machinery},
-	author = {Brewster, Stephen and Lumsden, Joanna and Bell, Marek and Hall, Malcolm and Tasker, Stuart},
-	month = apr,
-	year = {2003},
-	pages = {473--480},
-}</t>
-  </si>
-  <si>
     <t>inproceedings{ID23_manabe_tap_2011,
 	address = {New York, NY, USA},
 	series = {{UIST} '11},
@@ -162,6 +233,13 @@
 	month = feb,
 	year = {2012},
 	pages = {305--306},
+}</t>
+  </si>
+  <si>
+    <t>article{ID62_sano_applications_nodate,
+	title = {Applications using {Earphone} with {Biosignal} {Sensors}},
+	language = {en},
+	author = {Sano, Akane and Tomita, Takashi and Oba, Haruo},
 }</t>
   </si>
   <si>
@@ -180,6 +258,41 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID25_akiyama_thermon_2013,
+	address = {New York, NY, USA},
+	series = {{ISWC} '13},
+	title = {{ThermOn}: thermo-musical interface for an enhanced emotional experience},
+	isbn = {978-1-4503-2127-3},
+	shorttitle = {{ThermOn}},
+	url = {https://dl.acm.org/doi/10.1145/2493988.2494326},
+	doi = {10.1145/2493988.2494326},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 2013 {International} {Symposium} on {Wearable} {Computers}},
+	publisher = {Association for Computing Machinery},
+	author = {Akiyama, Shimon and Sato, Katsunari and Makino, Yasutoshi and Maeno, Takashi},
+	month = sep,
+	year = {2013},
+	pages = {45--52},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID20_manabe_conductive_2013,
+	address = {New York, NY, USA},
+	series = {{ISWC} '13},
+	title = {Conductive rubber electrodes for earphone-based eye gesture input interface},
+	isbn = {978-1-4503-2127-3},
+	url = {https://dl.acm.org/doi/10.1145/2493988.2494329},
+	doi = {10.1145/2493988.2494329},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 2013 {International} {Symposium} on {Wearable} {Computers}},
+	publisher = {Association for Computing Machinery},
+	author = {Manabe, Hiroyuki and Fukumoto, Masaaki and Yagi, Tohru},
+	month = sep,
+	year = {2013},
+	pages = {33--40},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID1_lissermann_earput_2014,
 	address = {New York, NY, USA},
 	series = {{OzCHI} '14},
@@ -234,7 +347,58 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">	address = {New York, NY, USA},
+    <t>article{ID190_bleichner_exploring_2015,
+	title = {Exploring miniaturized {EEG} electrodes for brain-computer interfaces. {An} {EEG} you do not see?},
+	volume = {3},
+	copyright = {© 2015 The Authors. Physiological Reports published by Wiley Periodicals, Inc. on behalf of the American Physiological Society and The Physiological Society.},
+	issn = {2051-817X},
+	url = {https://onlinelibrary.wiley.com/doi/abs/10.14814/phy2.12362},
+	doi = {10.14814/phy2.12362},
+	language = {en},
+	number = {4},
+	urldate = {2024-09-30},
+	journal = {Physiological Reports},
+	author = {Bleichner, Martin G. and Lundbeck, Micha and Selisky, Matthias and Minow, Falk and Jäger, Manuela and Emkes, Reiner and Debener, Stefan and De Vos, Maarten},
+	year = {2015},
+	keywords = {Ear EEG, miniaturized, P300 speller, ton-electrodes},
+	pages = {e12362},
+}</t>
+  </si>
+  <si>
+    <t>article{ID92_norton_soft_2015,
+	title = {Soft, curved electrode systems capable of integration on the auricle as a persistent brain–computer interface},
+	volume = {112},
+	url = {https://www.pnas.org/doi/abs/10.1073/pnas.1424875112},
+	doi = {10.1073/pnas.1424875112},
+	number = {13},
+	urldate = {2024-09-30},
+	journal = {Proceedings of the National Academy of Sciences},
+	author = {Norton, James J. S. and Lee, Dong Sup and Lee, Jung Woo and Lee, Woosik and Kwon, Ohjin and Won, Phillip and Jung, Sung-Young and Cheng, Huanyu and Jeong, Jae-Woong and Akce, Abdullah and Umunna, Stephen and Na, Ilyoun and Kwon, Yong Ho and Wang, Xiao-Qi and Liu, ZhuangJian and Paik, Ungyu and Huang, Yonggang and Bretl, Timothy and Yeo, Woon-Hong and Rogers, John A.},
+	month = mar,
+	year = {2015},
+	note = {Number: 13
+Publisher: Proceedings of the National Academy of Sciences},
+	pages = {3920--3925},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID188_wang_developing_2015,
+	title = {Developing an online steady-state visual evoked potential-based brain-computer interface system using {EarEEG}},
+	url = {https://ieeexplore.ieee.org/document/7318845},
+	doi = {10.1109/EMBC.2015.7318845},
+	urldate = {2024-10-02},
+	booktitle = {2015 37th {Annual} {International} {Conference} of the {IEEE} {Engineering} in {Medicine} and {Biology} {Society} ({EMBC})},
+	author = {Wang, Yu-Te and Nakanishi, Masaki and Kappel, Simon Lind and Kidmose, Preben and Mandic, Danilo P. and Wang, Yijun and Cheng, Chung-Kuan and Jung, Tzyy-Ping},
+	month = aug,
+	year = {2015},
+	note = {ISSN: 1558-4615},
+	keywords = {Ear, Electrodes, Electroencephalography, Accuracy, Signal to noise ratio, Visualization, Yttrium},
+	pages = {2271--2274},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID19_weigel_iskin_2015,
+	address = {New York, NY, USA},
 	series = {{CHI} '15},
 	title = {{iSkin}: {Flexible}, {Stretchable} and {Visually} {Customizable} {On}-{Body} {Touch} {Sensors} for {Mobile} {Computing}},
 	isbn = {978-1-4503-3145-6},
@@ -251,6 +415,24 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID63_ashbrook_bitey_2016,
+	address = {New York, NY, USA},
+	series = {{MobileHCI} '16},
+	title = {Bitey: an exploration of tooth click gestures for hands-free user interface control},
+	isbn = {978-1-4503-4408-1},
+	shorttitle = {Bitey},
+	url = {https://dl.acm.org/doi/10.1145/2935334.2935389},
+	doi = {10.1145/2935334.2935389},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 18th {International} {Conference} on {Human}-{Computer} {Interaction} with {Mobile} {Devices} and {Services}},
+	publisher = {Association for Computing Machinery},
+	author = {Ashbrook, Daniel and Tejada, Carlos and Mehta, Dhwanit and Jiminez, Anthony and Muralitharam, Goudam and Gajendra, Sangeeta and Tallents, Ross},
+	month = sep,
+	year = {2016},
+	pages = {158--169},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID34_laput_sweepsense_2016,
 	address = {New York, NY, USA},
 	series = {{IUI} '16},
@@ -269,6 +451,38 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID26_merrill_classifying_2016,
+	title = {Classifying mental gestures with in-ear {EEG}},
+	url = {https://ieeexplore.ieee.org/document/7516246/?arnumber=7516246},
+	doi = {10.1109/BSN.2016.7516246},
+	urldate = {2024-09-30},
+	booktitle = {2016 {IEEE} 13th {International} {Conference} on {Wearable} and {Implantable} {Body} {Sensor} {Networks} ({BSN})},
+	author = {Merrill, Nick and Curran, Max T. and Yang, Jong-Kai and Chuang, John},
+	month = jun,
+	year = {2016},
+	note = {ISSN: 2376-8894},
+	keywords = {Ear, Electrodes, Electroencephalography, Calibration, Face, Static VAr compensators, Usability},
+	pages = {130--135},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID43_nguyen_lightweight_2016,
+	address = {New York, NY, USA},
+	series = {{SenSys} '16},
+	title = {A {Lightweight} and {Inexpensive} {In}-ear {Sensing} {System} {For} {Automatic} {Whole}-night {Sleep} {Stage} {Monitoring}},
+	isbn = {978-1-4503-4263-6},
+	url = {https://dl.acm.org/doi/10.1145/2994551.2994562},
+	doi = {10.1145/2994551.2994562},
+	urldate = {2024-10-02},
+	booktitle = {Proceedings of the 14th {ACM} {Conference} on {Embedded} {Network} {Sensor} {Systems} {CD}-{ROM}},
+	publisher = {Association for Computing Machinery},
+	author = {Nguyen, Anh and Alqurashi, Raghda and Raghebi, Zohreh and Banaei-kashani, Farnoush and Halbower, Ann C. and Vu, Tam},
+	month = nov,
+	year = {2016},
+	pages = {230--244},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID17_ando_canalsense_2017,
 	address = {New York, NY, USA},
 	series = {{UIST} '17},
@@ -287,6 +501,22 @@
 }</t>
   </si>
   <si>
+    <t>article{ID206_dim_investigation_2017,
+	title = {Investigation of suitable body parts for wearable vibration feedback in walking navigation},
+	volume = {97},
+	issn = {1071-5819},
+	url = {https://www.sciencedirect.com/science/article/pii/S107158191630088X},
+	doi = {10.1016/j.ijhcs.2016.08.002},
+	urldate = {2024-09-30},
+	journal = {International Journal of Human-Computer Studies},
+	author = {Dim, Nem Khan and Ren, Xiangshi},
+	month = jan,
+	year = {2017},
+	keywords = {Navigation, Wearable vibration},
+	pages = {34--44},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID22_kikuchi_eartouch_2017,
 	address = {New York, NY, USA},
 	series = {{MobileHCI} '17},
@@ -305,6 +535,22 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID64_maag_barton_2017,
+	title = {{BARTON}: {Low} {Power} {Tongue} {Movement} {Sensing} with {In}-{Ear} {Barometers}},
+	shorttitle = {{BARTON}},
+	url = {https://ieeexplore.ieee.org/document/8368342/?arnumber=8368342},
+	doi = {10.1109/ICPADS.2017.00013},
+	urldate = {2024-09-30},
+	booktitle = {2017 {IEEE} 23rd {International} {Conference} on {Parallel} and {Distributed} {Systems} ({ICPADS})},
+	author = {Maag, Balz and Zhou, Zimu and Saukh, Olga and Thiele, Lothar},
+	month = dec,
+	year = {2017},
+	note = {ISSN: 1521-9097},
+	keywords = {Ear, Headphones, Frequency response, Human computer interaction, Irrigation, Microphones, Pressure sensors, Sensors, Tongue, Ubiquitous computing},
+	pages = {9--16},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID12_matthies_earfieldsensing_2017,
 	address = {New York, NY, USA},
 	series = {{CHI} '17},
@@ -320,6 +566,40 @@
 	month = may,
 	year = {2017},
 	pages = {1911--1922},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID111_wang_human-machine_2017,
+	title = {Human-machine interface using eye saccade and facial expression physiological signals to improve the maneuverability of wearable robots},
+	url = {https://ieeexplore.ieee.org/document/8383845},
+	doi = {10.1109/WEROB.2017.8383845},
+	urldate = {2024-09-30},
+	booktitle = {2017 {International} {Symposium} on {Wearable} {Robotics} and {Rehabilitation} ({WeRob})},
+	author = {Wang, Ker-Jiun and You, Kaiwen and Chen, Fangyi and Huang, Zihang and Mao, Zhi-Hong},
+	month = nov,
+	year = {2017},
+	keywords = {Ear, Support vector machines, Classification algorithms, Electrodes, Exoskeletons, Machine learning algorithms, Physiology},
+	pages = {1--2},
+}</t>
+  </si>
+  <si>
+    <t>article{ID117_ahn_wearable_2018,
+	title = {Wearable in-the-ear {EEG} system for {SSVEP}-based brain–computer interface},
+	volume = {54},
+	copyright = {© 2020 The Institution of Engineering and Technology},
+	issn = {1350-911X},
+	url = {https://onlinelibrary.wiley.com/doi/abs/10.1049/el.2017.3970},
+	doi = {10.1049/el.2017.3970},
+	language = {en},
+	number = {7},
+	urldate = {2024-09-30},
+	journal = {Electronics Letters},
+	author = {Ahn, J.w. and Ku, Y. and Kim, D.y. and Sohn, J. and Kim, J.-H. and Kim, H.c.},
+	year = {2018},
+	note = {Number: 7
+\_eprint: https://onlinelibrary.wiley.com/doi/pdf/10.1049/el.2017.3970},
+	keywords = {BCI applications, biomedical electrodes, body sensor networks, brain-computer interfaces, ear, electrodes, electroencephalogram-based brain-computer interfaces, electroencephalography, high information transfer rate, medical signal processing, noise level, offline BCI experiment, patient monitoring, short training time, signal denoising, SSVEP-based brain-computer interface, steady-state visual evoked potential, unobtrusive monitoring, visual evoked potentials, visual targets, wearable in-the-ear EEG system},
+	pages = {413--414},
 }</t>
   </si>
   <si>
@@ -342,6 +622,41 @@
 }</t>
   </si>
   <si>
+    <t>article{ID91_favre-felix_improving_2018,
+	title = {Improving {Speech} {Intelligibility} by {Hearing} {Aid} {Eye}-{Gaze} {Steering}: {Conditions} {With} {Head} {Fixated} in a {Multitalker} {Environment}},
+	volume = {22},
+	issn = {2331-2165, 2331-2165},
+	shorttitle = {Improving {Speech} {Intelligibility} by {Hearing} {Aid} {Eye}-{Gaze} {Steering}},
+	url = {https://journals.sagepub.com/doi/10.1177/2331216518814388},
+	doi = {10.1177/2331216518814388},
+	language = {en},
+	urldate = {2024-09-30},
+	journal = {Trends in Hearing},
+	author = {Favre-Félix, Antoine and Graversen, Carina and Hietkamp, Renskje K. and Dau, Torsten and Lunner, Thomas},
+	month = jan,
+	year = {2018},
+	pages = {2331216518814388},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID31_huang_orecchio_2018,
+	address = {New York, NY, USA},
+	series = {{UIST} '18},
+	title = {Orecchio: {Extending} {Body}-{Language} through {Actuated} {Static} and {Dynamic} {Auricular} {Postures}},
+	isbn = {978-1-4503-5948-1},
+	shorttitle = {Orecchio},
+	url = {https://dl.acm.org/doi/10.1145/3242587.3242629},
+	doi = {10.1145/3242587.3242629},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 31st {Annual} {ACM} {Symposium} on {User} {Interface} {Software} and {Technology}},
+	publisher = {Association for Computing Machinery},
+	author = {Huang, Da-Yuan and Seyed, Teddy and Li, Linjun and Gong, Jun and Yao, Zhihao and Jiao, Yuchen and Chen, Xiang 'Anthony' and Yang, Xing-Dong},
+	month = oct,
+	year = {2018},
+	pages = {697--710},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID18_lee_designing_2018,
 	address = {New York, NY, USA},
 	series = {{UIST} '18},
@@ -376,6 +691,46 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID65_nguyen_tyth-typing_2018,
+	address = {New York, NY, USA},
+	series = {{MobiSys} '18},
+	title = {{TYTH}-{Typing} {On} {Your} {Teeth}: {Tongue}-{Teeth} {Localization} for {Human}-{Computer} {Interface}},
+	isbn = {978-1-4503-5720-3},
+	shorttitle = {{TYTH}-{Typing} {On} {Your} {Teeth}},
+	url = {https://dl.acm.org/doi/10.1145/3210240.3210322},
+	doi = {10.1145/3210240.3210322},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 16th {Annual} {International} {Conference} on {Mobile} {Systems}, {Applications}, and {Services}},
+	publisher = {Association for Computing Machinery},
+	author = {Nguyen, Phuc and Bui, Nam and Nguyen, Anh and Truong, Hoang and Suresh, Abhijit and Whitlock, Matt and Pham, Duy and Dinh, Thang and Vu, Tam},
+	month = jun,
+	year = {2018},
+	pages = {269--282},
+}</t>
+  </si>
+  <si>
+    <t>article{ID60_taniguchi_earable_2018,
+	title = {Earable {TEMPO}: {A} {Novel}, {Hands}-{Free} {Input} {Device} that {Uses} the {Movement} of the {Tongue} {Measured} with a {Wearable} {Ear} {Sensor}},
+	volume = {18},
+	copyright = {http://creativecommons.org/licenses/by/3.0/},
+	issn = {1424-8220},
+	shorttitle = {Earable {TEMPO}},
+	url = {https://www.mdpi.com/1424-8220/18/3/733},
+	doi = {10.3390/s18030733},
+	language = {en},
+	number = {3},
+	urldate = {2024-09-30},
+	journal = {Sensors},
+	author = {Taniguchi, Kazuhiro and Kondo, Hisashi and Kurosawa, Mami and Nishikawa, Atsushi},
+	month = mar,
+	year = {2018},
+	note = {Number: 3
+Publisher: Multidisciplinary Digital Publishing Institute},
+	keywords = {ear canal, hand-free controller, non-invasive, optical measurement, tongue},
+	pages = {733},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID8_amesaka_facial_2019,
 	address = {New York, NY, USA},
 	series = {{ISWC} '19},
@@ -393,19 +748,20 @@
 }</t>
   </si>
   <si>
-    <t>inproceedings{ferlini_enabling_2021,
-	title = {Enabling {In}-{Ear} {Magnetic} {Sensing}: {Automatic} and {User} {Transparent} {Magnetometer} {Calibration}},
-	shorttitle = {Enabling {In}-{Ear} {Magnetic} {Sensing}},
-	url = {https://ieeexplore.ieee.org/document/9439112/?arnumber=9439112},
-	doi = {10.1109/PERCOM50583.2021.9439112},
-	urldate = {2024-09-30},
-	booktitle = {2021 {IEEE} {International} {Conference} on {Pervasive} {Computing} and {Communications} ({PerCom})},
-	author = {Ferlini, Andrea and Montanari, Alessandro and Grammenos, Andreas and Harle, Robert and Mascolo, Cecilia},
-	month = mar,
-	year = {2021},
-	note = {ISSN: 2474-249X},
-	keywords = {Interference, Magnetic domains, Magnetomechanical effects, Magnetometers, Radio frequency, Vibrations, Wearable computers},
-	pages = {1--8},
+    <t>inproceedings{ID80_ferlini_head_2019,
+	address = {New York, NY, USA},
+	series = {{EarComp}'19},
+	title = {Head {Motion} {Tracking} {Through} in-{Ear} {Wearables}},
+	isbn = {978-1-4503-6902-2},
+	url = {https://dl.acm.org/doi/10.1145/3345615.3361131},
+	doi = {10.1145/3345615.3361131},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 1st {International} {Workshop} on {Earable} {Computing}},
+	publisher = {Association for Computing Machinery},
+	author = {Ferlini, Andrea and Montanari, Alessandro and Mascolo, Cecilia and Harle, Robert},
+	month = feb,
+	year = {2019},
+	pages = {8--13},
 }</t>
   </si>
   <si>
@@ -426,6 +782,60 @@
 }</t>
   </si>
   <si>
+    <t>article{ID106_lee_activearring_2019,
+	title = {{ActivEarring}: {Spatiotemporal} {Haptic} {Cues} on the {Ears}},
+	volume = {12},
+	issn = {2329-4051},
+	shorttitle = {{ActivEarring}},
+	url = {https://ieeexplore.ieee.org/document/8750808},
+	doi = {10.1109/TOH.2019.2925799},
+	number = {4},
+	urldate = {2024-09-30},
+	journal = {IEEE Transactions on Haptics},
+	author = {Lee, Minkyeong and Je, Seungwoo and Lee, Woojin and Ashbrook, Daniel and Bianchi, Andrea},
+	month = oct,
+	year = {2019},
+	note = {Number: 4
+Conference Name: IEEE Transactions on Haptics},
+	keywords = {Ear, Headphones, Vibrations, Auditory system, digital jewelry, Haptic interfaces, haptics, Sensitivity, smart earring, spatiotemporal patterns, Transducers, wearable},
+	pages = {554--562},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID14_lee_automatic_2019,
+	address = {New York, NY, USA},
+	series = {{AH2019}},
+	title = {Automatic {Smile} and {Frown} {Recognition} with {Kinetic} {Earables}},
+	isbn = {978-1-4503-6547-5},
+	url = {https://dl.acm.org/doi/10.1145/3311823.3311869},
+	doi = {10.1145/3311823.3311869},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 10th {Augmented} {Human} {International} {Conference} 2019},
+	publisher = {Association for Computing Machinery},
+	author = {Lee, Seungchul and Min, Chulhong and Montanari, Alessandro and Mathur, Akhil and Chang, Youngjae and Song, Junehwa and Kawsar, Fahim},
+	month = mar,
+	year = {2019},
+	pages = {1--4},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID2_nasser_thermo-haptic_2019,
+	address = {New York, NY, USA},
+	series = {{ASSETS} '19},
+	title = {Thermo-haptic {Earable} {Display} for the {Hearing} and {Visually} {Impaired}},
+	isbn = {978-1-4503-6676-2},
+	url = {https://dl.acm.org/doi/10.1145/3308561.3354636},
+	doi = {10.1145/3308561.3354636},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 21st {International} {ACM} {SIGACCESS} {Conference} on {Computers} and {Accessibility}},
+	publisher = {Association for Computing Machinery},
+	author = {Nasser, Arshad and Zhu, Kening and Wiseman, Sarah},
+	month = oct,
+	year = {2019},
+	pages = {630--632},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID78_odoemelem_using_2020,
 	address = {New York, NY, USA},
 	series = {{EarComp}'19},
@@ -440,6 +850,42 @@
 	month = feb,
 	year = {2020},
 	pages = {26--29},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID15_shirota_altered_2019,
+	address = {New York, NY, USA},
+	series = {{ISWC} '19},
+	title = {Altered pinna: exploring shape change of pinna for perception and illusion of sound direction change},
+	isbn = {978-1-4503-6870-4},
+	shorttitle = {Altered pinna},
+	url = {https://dl.acm.org/doi/10.1145/3341163.3347725},
+	doi = {10.1145/3341163.3347725},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 2019 {ACM} {International} {Symposium} on {Wearable} {Computers}},
+	publisher = {Association for Computing Machinery},
+	author = {Shirota, Kenichiro and Peiris, Roshan Lalintha and Minamizawa, Kouta},
+	month = sep,
+	year = {2019},
+	pages = {220--224},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID620_vega_galvez_byteit_2019,
+	address = {New York, NY, USA},
+	series = {{CHI} {EA} '19},
+	title = {Byte.it: {Discreet} {Teeth} {Gestures} for {Mobile} {Device} {Interaction}},
+	isbn = {978-1-4503-5971-9},
+	shorttitle = {Byte.it},
+	url = {https://dl.acm.org/doi/10.1145/3290607.3312925},
+	doi = {10.1145/3290607.3312925},
+	urldate = {2024-12-18},
+	booktitle = {Extended {Abstracts} of the 2019 {CHI} {Conference} on {Human} {Factors} in {Computing} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Vega Gálvez, Tomás and Sapkota, Shardul and Dancu, Alexandru and Maes, Pattie},
+	month = may,
+	year = {2019},
+	pages = {1--6},
 }</t>
   </si>
   <si>
@@ -476,6 +922,77 @@
 	month = nov,
 	year = {2020},
 	pages = {95--108},
+}</t>
+  </si>
+  <si>
+    <t>article{ID234_chen_exploring_2020,
+	title = {Exploring {User} {Defined} {Gestures} for {Ear}-{Based} {Interactions}},
+	volume = {4},
+	url = {https://dl.acm.org/doi/10.1145/3427314},
+	doi = {10.1145/3427314},
+	number = {ISS},
+	urldate = {2024-09-30},
+	journal = {Proc. ACM Hum.-Comput. Interact.},
+	author = {Chen, Yu-Chun and Liao, Chia-Ying and Hsu, Shuo-wen and Huang, Da-Yuan and Chen, Bing-Yu},
+	month = nov,
+	year = {2020},
+	note = {Number: ISS},
+	pages = {186:1--186:20},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID212_chen_c-face_2020,
+	address = {New York, NY, USA},
+	series = {{UIST} '20},
+	title = {C-{Face}: {Continuously} {Reconstructing} {Facial} {Expressions} by {Deep} {Learning} {Contours} of the {Face} with {Ear}-mounted {Miniature} {Cameras}},
+	isbn = {978-1-4503-7514-6},
+	shorttitle = {C-{Face}},
+	url = {https://dl.acm.org/doi/10.1145/3379337.3415879},
+	doi = {10.1145/3379337.3415879},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 33rd {Annual} {ACM} {Symposium} on {User} {Interface} {Software} and {Technology}},
+	publisher = {Association for Computing Machinery},
+	author = {Chen, Tuochao and Steeper, Benjamin and Alsheikh, Kinan and Tao, Songyun and Guimbretière, François and Zhang, Cheng},
+	month = oct,
+	year = {2020},
+	pages = {112--125},
+}</t>
+  </si>
+  <si>
+    <t>article{ID2020_kaveh_wireless_2020,
+	title = {Wireless {User}-{Generic} {Ear} {EEG}},
+	volume = {14},
+	issn = {1940-9990},
+	url = {https://ieeexplore.ieee.org/document/9115876},
+	doi = {10.1109/TBCAS.2020.3001265},
+	number = {4},
+	urldate = {2024-09-30},
+	journal = {IEEE Transactions on Biomedical Circuits and Systems},
+	author = {Kaveh, Ryan and Doong, Justin and Zhou, Andy and Schwendeman, Carolyn and Gopalan, Karthik and Burghardt, Fred L. and Arias, Ana C. and Maharbiz, Michel M. and Muller, Rikky},
+	month = aug,
+	year = {2020},
+	note = {Number: 4
+Conference Name: IEEE Transactions on Biomedical Circuits and Systems},
+	keywords = {Ear, Electrodes, BCI, dry electrodes, ear EEG, EEG, Electroencephalography, Skin, user-generic, Wireless communication, wireless neural recording, Wireless sensor networks},
+	pages = {727--737},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID16_prakash_earsense_2020,
+	address = {New York, NY, USA},
+	series = {{MobiCom} '20},
+	title = {{EarSense}: earphones as a teeth activity sensor},
+	isbn = {978-1-4503-7085-1},
+	shorttitle = {{EarSense}},
+	url = {https://dl.acm.org/doi/10.1145/3372224.3419197},
+	doi = {10.1145/3372224.3419197},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 26th {Annual} {International} {Conference} on {Mobile} {Computing} and {Networking}},
+	publisher = {Association for Computing Machinery},
+	author = {Prakash, Jay and Yang, Zhijian and Wei, Yu-Lin and Hassanieh, Haitham and Choudhury, Romit Roy},
+	month = sep,
+	year = {2020},
+	pages = {1--13},
 }</t>
   </si>
   <si>
@@ -530,6 +1047,22 @@
 	month = sep,
 	year = {2021},
 	pages = {147--159},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID247_ferlini_enabling_2021,
+	title = {Enabling {In}-{Ear} {Magnetic} {Sensing}: {Automatic} and {User} {Transparent} {Magnetometer} {Calibration}},
+	shorttitle = {Enabling {In}-{Ear} {Magnetic} {Sensing}},
+	url = {https://ieeexplore.ieee.org/document/9439112/?arnumber=9439112},
+	doi = {10.1109/PERCOM50583.2021.9439112},
+	urldate = {2024-09-30},
+	booktitle = {2021 {IEEE} {International} {Conference} on {Pervasive} {Computing} and {Communications} ({PerCom})},
+	author = {Ferlini, Andrea and Montanari, Alessandro and Grammenos, Andreas and Harle, Robert and Mascolo, Cecilia},
+	month = mar,
+	year = {2021},
+	note = {ISSN: 2474-249X},
+	keywords = {Interference, Magnetic domains, Magnetomechanical effects, Magnetometers, Radio frequency, Vibrations, Wearable computers},
+	pages = {1--8},
 }</t>
   </si>
   <si>
@@ -603,6 +1136,40 @@
 }</t>
   </si>
   <si>
+    <t>article{ID618_kakaraparthi_facesense_2021,
+	title = {{FaceSense}: {Sensing} {Face} {Touch} with an {Ear}-worn {System}},
+	volume = {5},
+	shorttitle = {{FaceSense}},
+	url = {https://dl.acm.org/doi/10.1145/3478129},
+	doi = {10.1145/3478129},
+	number = {3},
+	urldate = {2024-12-17},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Kakaraparthi, Vimal and Shao, Qijia and Carver, Charles J. and Pham, Tien and Bui, Nam and Nguyen, Phuc and Zhou, Xia and Vu, Tam},
+	month = sep,
+	year = {2021},
+	pages = {110:1--110:27},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID213_khanna_jawsense_2021,
+	address = {Virtual United Kingdom},
+	title = {{JawSense}: {Recognizing} {Unvoiced} {Sound} using a {Low}-cost {Ear}-worn {System}},
+	isbn = {978-1-4503-8323-3},
+	shorttitle = {{JawSense}},
+	url = {https://dl.acm.org/doi/10.1145/3446382.3448363},
+	doi = {10.1145/3446382.3448363},
+	language = {en},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 22nd {International} {Workshop} on {Mobile} {Computing} {Systems} and {Applications}},
+	publisher = {ACM},
+	author = {Khanna, Prerna and Srivastava, Tanmay and Pan, Shijia and Jain, Shubham and Nguyen, Phuc},
+	month = feb,
+	year = {2021},
+	pages = {44--49},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID224_laporte_detecting_2021,
 	address = {New York, NY, USA},
 	series = {{UbiComp}/{ISWC} '21 {Adjunct}},
@@ -620,21 +1187,54 @@
 }</t>
   </si>
   <si>
-    <t>inproceedings{ID626_ma_oesense_2021,
-	address = {New York, NY, USA},
-	series = {{MobiSys} '21},
-	title = {{OESense}: employing occlusion effect for in-ear human sensing},
-	isbn = {978-1-4503-8443-8},
-	shorttitle = {{OESense}},
-	url = {https://dl.acm.org/doi/10.1145/3458864.3467680},
-	doi = {10.1145/3458864.3467680},
+    <t>inproceedings{ID612_gruebler_measurement_2010,
+	title = {Measurement of distal {EMG} signals using a wearable device for reading facial expressions},
+	url = {https://ieeexplore.ieee.org/abstract/document/5626504},
+	doi = {10.1109/IEMBS.2010.5626504},
 	urldate = {2024-12-18},
-	booktitle = {Proceedings of the 19th {Annual} {International} {Conference} on {Mobile} {Systems}, {Applications}, and {Services}},
-	publisher = {Association for Computing Machinery},
-	author = {Ma, Dong and Ferlini, Andrea and Mascolo, Cecilia},
-	month = jun,
+	booktitle = {2010 {Annual} {International} {Conference} of the {IEEE} {Engineering} in {Medicine} and {Biology}},
+	author = {Gruebler, Anna and Suzuki, Kenji},
+	month = aug,
+	year = {2010},
+	note = {ISSN: 1558-4615},
+	keywords = {Electrodes, Face, Face recognition, Muscles, Correlation, Electromyography, Humans},
+	pages = {4594--4597},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID259_nasser_thermearhook_2021,
+	address = {New York, NY, USA},
+	series = {{ICMI} '21},
+	title = {{ThermEarhook}: {Investigating} {Spatial} {Thermal} {Haptic} {Feedback} on the {Auricular} {Skin} {Area}},
+	isbn = {978-1-4503-8481-0},
+	shorttitle = {{ThermEarhook}},
+	url = {https://dl.acm.org/doi/10.1145/3462244.3479922},
+	doi = {10.1145/3462244.3479922},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 2021 {International} {Conference} on {Multimodal} {Interaction}},
+	publisher = {Association for Computing Machinery},
+	author = {Nasser, Arshad and Zheng, Kexin and Zhu, Kening},
+	month = oct,
 	year = {2021},
-	pages = {175--187},
+	pages = {662--672},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID628_peng_wigglears_2021,
+	address = {New York, NY, USA},
+	series = {{CHI} {EA} '21},
+	title = {Wigglears: {Wiggle} {Your} {Ears} {With} {Your} {Emotions}},
+	isbn = {978-1-4503-8095-9},
+	shorttitle = {Wigglears},
+	url = {https://dl.acm.org/doi/10.1145/3411763.3451846},
+	doi = {10.1145/3411763.3451846},
+	urldate = {2024-12-19},
+	booktitle = {Extended {Abstracts} of the 2021 {CHI} {Conference} on {Human} {Factors} in {Computing} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Peng, Victoria},
+	month = may,
+	year = {2021},
+	pages = {1--5},
 }</t>
   </si>
   <si>
@@ -653,6 +1253,59 @@
 	month = may,
 	year = {2021},
 	pages = {1--14},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID221_sun_teethtap_2021,
+	address = {New York, NY, USA},
+	series = {{IUI} '21},
+	title = {{TeethTap}: {Recognizing} {Discrete} {Teeth} {Gestures} {Using} {Motion} and {Acoustic} {Sensing} on an {Earpiece}},
+	isbn = {978-1-4503-8017-1},
+	shorttitle = {{TeethTap}},
+	url = {https://dl.acm.org/doi/10.1145/3397481.3450645},
+	doi = {10.1145/3397481.3450645},
+	urldate = {2024-09-30},
+	booktitle = {Proceedings of the 26th {International} {Conference} on {Intelligent} {User} {Interfaces}},
+	publisher = {Association for Computing Machinery},
+	author = {Sun, Wei and Li, Franklin Mingzhe and Steeper, Benjamin and Xu, Songlin and Tian, Feng and Zhang, Cheng},
+	month = apr,
+	year = {2021},
+	pages = {161--169},
+}</t>
+  </si>
+  <si>
+    <t>article{ID231_verma_expressear_2021,
+	title = {{ExpressEar}: {Sensing} {Fine}-{Grained} {Facial} {Expressions} with {Earables}},
+	volume = {5},
+	shorttitle = {{ExpressEar}},
+	url = {https://dl.acm.org/doi/10.1145/3478085},
+	doi = {10.1145/3478085},
+	number = {3},
+	urldate = {2024-09-30},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Verma, Dhruv and Bhalla, Sejal and Sahnan, Dhruv and Shukla, Jainendra and Parnami, Aman},
+	month = sep,
+	year = {2021},
+	note = {Number: 3},
+	pages = {129:1--129:28},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID616_wu_bioface-3d_2021,
+	address = {New York, NY, USA},
+	series = {{MobiCom} '21},
+	title = {{BioFace}-{3D}: continuous 3d facial reconstruction through lightweight single-ear biosensors},
+	isbn = {978-1-4503-8342-4},
+	shorttitle = {{BioFace}-{3D}},
+	url = {https://dl.acm.org/doi/10.1145/3447993.3483252},
+	doi = {10.1145/3447993.3483252},
+	urldate = {2024-12-17},
+	booktitle = {Proceedings of the 27th {Annual} {International} {Conference} on {Mobile} {Computing} and {Networking}},
+	publisher = {Association for Computing Machinery},
+	author = {Wu, Yi and Kakaraparthi, Vimal and Li, Zhuohang and Pham, Tien and Liu, Jian and Nguyen, Phuc},
+	month = oct,
+	year = {2021},
+	pages = {350--363},
 }</t>
   </si>
   <si>
@@ -710,6 +1363,126 @@
 }</t>
   </si>
   <si>
+    <t>article{ID345_choi_ppgface_2022,
+	title = {{PPGface}: {Like} {What} {You} {Are} {Watching}? {Earphones} {Can} "{Feel}" {Your} {Facial} {Expressions}},
+	volume = {6},
+	shorttitle = {{PPGface}},
+	url = {https://dl.acm.org/doi/10.1145/3534597},
+	doi = {10.1145/3534597},
+	number = {2},
+	urldate = {2024-10-10},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Choi, Seokmin and Gao, Yang and Jin, Yincheng and Kim, Se jun and Li, Jiyang and Xu, Wenyao and Jin, Zhanpeng},
+	month = jul,
+	year = {2022},
+	note = {Number: 2},
+	pages = {48:1--48:32},
+}</t>
+  </si>
+  <si>
+    <t>article{ID627_futami_augmenting_2022,
+	title = {Augmenting {Ear} {Accessories} for {Facial} {Gesture} {Input} {Using} {Infrared} {Distance} {Sensor} {Array}},
+	volume = {11},
+	copyright = {http://creativecommons.org/licenses/by/3.0/},
+	issn = {2079-9292},
+	url = {https://www.mdpi.com/2079-9292/11/9/1480},
+	doi = {10.3390/electronics11091480},
+	language = {en},
+	number = {9},
+	urldate = {2024-12-19},
+	journal = {Electronics},
+	author = {Futami, Kyosuke and Oyama, Kohei and Murao, Kazuya},
+	month = jan,
+	year = {2022},
+	note = {Number: 9
+Publisher: Multidisciplinary Digital Publishing Institute},
+	keywords = {ear accessories, earable, facial gesture recognition, hands-free input interface, infrared distance sensor, photo reflector, skin movement},
+	pages = {1480},
+}</t>
+  </si>
+  <si>
+    <t>article{ID315_jin_earcommand_2022,
+	title = {{EarCommand}: "{Hearing}" {Your} {Silent} {Speech} {Commands} {In} {Ear}},
+	volume = {6},
+	shorttitle = {{EarCommand}},
+	url = {https://dl.acm.org/doi/10.1145/3534613},
+	doi = {10.1145/3534613},
+	number = {2},
+	urldate = {2024-10-08},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Jin, Yincheng and Gao, Yang and Xu, Xuhai and Choi, Seokmin and Li, Jiyang and Liu, Feng and Li, Zhengxiong and Jin, Zhanpeng},
+	month = jul,
+	year = {2022},
+	note = {Number: 2},
+	pages = {57:1--57:28},
+}</t>
+  </si>
+  <si>
+    <t>article{ID278_li_eario_2022,
+	title = {{EarIO}: {A} {Low}-power {Acoustic} {Sensing} {Earable} for {Continuously} {Tracking} {Detailed} {Facial} {Movements}},
+	volume = {6},
+	shorttitle = {{EarIO}},
+	url = {https://dl.acm.org/doi/10.1145/3534621},
+	doi = {10.1145/3534621},
+	number = {2},
+	urldate = {2024-10-08},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Li, Ke and Zhang, Ruidong and Liang, Bo and Guimbretière, François and Zhang, Cheng},
+	month = jul,
+	year = {2022},
+	note = {Number: 2},
+	pages = {62:1--62:24},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID512_song_facelistener_2022,
+	title = {{FaceListener}: {Recognizing} {Human} {Facial} {Expressions} via {Acoustic} {Sensing} on {Commodity} {Headphones}},
+	shorttitle = {{FaceListener}},
+	url = {https://ieeexplore.ieee.org/document/9825944},
+	doi = {10.1109/IPSN54338.2022.00019},
+	urldate = {2024-12-09},
+	booktitle = {2022 21st {ACM}/{IEEE} {International} {Conference} on {Information} {Processing} in {Sensor} {Networks} ({IPSN})},
+	author = {Song, Xingzhe and Huang, Kai and Gao, Wei},
+	month = may,
+	year = {2022},
+	keywords = {Headphones, Acoustics, Skin, Face recognition, Muscles, Acoustic Sensing, Face Skin Deformation, Headphone, Human Facial Expressions, Knowledge Distillation, Machine learning, Transforms},
+	pages = {145--157},
+}</t>
+  </si>
+  <si>
+    <t>article{ID296_rateau_leveraging_2022,
+	title = {Leveraging {Smartwatch} and {Earbuds} {Gesture} {Capture} to {Support} {Wearable} {Interaction}},
+	volume = {6},
+	url = {https://dl.acm.org/doi/10.1145/3567710},
+	doi = {10.1145/3567710},
+	number = {ISS},
+	urldate = {2024-10-08},
+	journal = {Proc. ACM Hum.-Comput. Interact.},
+	author = {Rateau, Hanae and Lank, Edward and Liu, Zhe},
+	month = nov,
+	year = {2022},
+	note = {Number: ISS},
+	pages = {557:31--557:50},
+}</t>
+  </si>
+  <si>
+    <t>article{ID307_srivastava_muteit_2022,
+	title = {{MuteIt}: {Jaw} {Motion} {Based} {Unvoiced} {Command} {Recognition} {Using} {Earable}},
+	volume = {6},
+	shorttitle = {{MuteIt}},
+	url = {https://dl.acm.org/doi/10.1145/3550281},
+	doi = {10.1145/3550281},
+	number = {3},
+	urldate = {2024-10-08},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Srivastava, Tanmay and Khanna, Prerna and Pan, Shijia and Nguyen, Phuc and Jain, Shubham},
+	month = sep,
+	year = {2022},
+	note = {Number: 3},
+	pages = {140:1--140:26},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID309_wang_faceori_2022,
 	address = {New York, NY, USA},
 	series = {{CHI} '22},
@@ -728,6 +1501,38 @@
 }</t>
   </si>
   <si>
+    <t>article{ID306_wang_toothsonic_2022,
+	title = {{ToothSonic}: {Earable} {Authentication} via {Acoustic} {Toothprint}},
+	volume = {6},
+	shorttitle = {{ToothSonic}},
+	url = {https://dl.acm.org/doi/10.1145/3534606},
+	doi = {10.1145/3534606},
+	number = {2},
+	urldate = {2024-12-16},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Wang, Zi and Ren, Yili and Chen, Yingying and Yang, Jie},
+	month = jul,
+	year = {2022},
+	pages = {78:1--78:24},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID388_yang_customized_2022,
+	title = {A {Customized} {Artificial} {Ear} {Based} on {Vibrotactile} {Feedback}: {A} {Pilot} {Study}},
+	shorttitle = {A {Customized} {Artificial} {Ear} {Based} on {Vibrotactile} {Feedback}},
+	url = {https://ieeexplore.ieee.org/abstract/document/9928488},
+	doi = {10.1109/BSN56160.2022.9928488},
+	urldate = {2024-12-19},
+	booktitle = {2022 {IEEE}-{EMBS} {International} {Conference} on {Wearable} and {Implantable} {Body} {Sensor} {Networks} ({BSN})},
+	author = {Yang, Yicheng and Bai, Weibang and Lo, Benny},
+	month = sep,
+	year = {2022},
+	note = {ISSN: 2376-8894},
+	keywords = {Ear, Prototypes, Hearing aids, Real-time systems, Speech recognition, artificial ear, hearing aid, Oral communication, Speech coding, vibrotactile},
+	pages = {1--4},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID284_alkiek_earbender_2023,
 	address = {New York, NY, USA},
 	series = {{UbiComp}/{ISWC} '23 {Adjunct}},
@@ -746,6 +1551,41 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID344_chugh_envolve_2023,
+	address = {New York, NY, USA},
+	series = {{UbiComp}/{ISWC} '22 {Adjunct}},
+	title = {{enVolve}: {Are} {You} {Listening}? {Inertial} {Sensing} to {Monitor} the {Involvement} of {Silent} {Listeners} during an {Online} {Interaction}},
+	isbn = {978-1-4503-9423-9},
+	shorttitle = {{enVolve}},
+	url = {https://dl.acm.org/doi/10.1145/3544793.3563419},
+	doi = {10.1145/3544793.3563419},
+	urldate = {2024-12-19},
+	booktitle = {Adjunct {Proceedings} of the 2022 {ACM} {International} {Joint} {Conference} on {Pervasive} and {Ubiquitous} {Computing} and the 2022 {ACM} {International} {Symposium} on {Wearable} {Computers}},
+	publisher = {Association for Computing Machinery},
+	author = {Chugh, Garvit and Chakraborty, Suchetana and Bhandari, Ravi and Chakraborty, Sandip},
+	month = apr,
+	year = {2023},
+	pages = {236--241},
+}</t>
+  </si>
+  <si>
+    <t>article{ID342_jin_smartasl_2023,
+	title = {{SmartASL}: "{Point}-of-{Care}" {Comprehensive} {ASL} {Interpreter} {Using} {Wearables}},
+	volume = {7},
+	shorttitle = {{SmartASL}},
+	url = {https://dl.acm.org/doi/10.1145/3596255},
+	doi = {10.1145/3596255},
+	number = {2},
+	urldate = {2024-10-10},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Jin, Yincheng and Zhang, Shibo and Gao, Yang and Xu, Xuhai and Choi, Seokmin and Li, Zhengxiong and Adler, Henry J. and Jin, Zhanpeng},
+	month = jun,
+	year = {2023},
+	note = {Number: 2},
+	pages = {60:1--60:21},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID376_li_enabling_2023,
 	address = {New York, NY, USA},
 	series = {{CHI} '23},
@@ -781,6 +1621,61 @@
 }</t>
   </si>
   <si>
+    <t>article{ID443_paul_versatile_2023,
+	title = {A {Versatile} {In}-{Ear} {Biosensing} {System} and {Body}-{Area} {Network} for {Unobtrusive} {Continuous} {Health} {Monitoring}},
+	volume = {17},
+	issn = {1940-9990},
+	url = {https://ieeexplore.ieee.org/abstract/document/10115033},
+	doi = {10.1109/TBCAS.2023.3272649},
+	number = {3},
+	urldate = {2024-12-19},
+	journal = {IEEE Transactions on Biomedical Circuits and Systems},
+	author = {Paul, Akshay and Lee, Min S. and Xu, Yuchen and Deiss, Stephen R. and Cauwenberghs, Gert},
+	month = jun,
+	year = {2023},
+	note = {Conference Name: IEEE Transactions on Biomedical Circuits and Systems},
+	keywords = {BCI, dry electrodes, Electroencephalography, Wireless communication, Biosensors, Electromyography, Biomedical monitoring, body sensor network, Body sensor networks, Brain-computer interfaces, EMG, EOG, health sensing, in-ear EEG, PCB electrodes, WiFi, Wireless fidelity},
+	pages = {483--494},
+}</t>
+  </si>
+  <si>
+    <t>article{ID277_stanke_can_2023,
+	title = {Can {You} {Ear} {Me}? {A} {Comparison} of {Different} {Private} and {Public} {Notification} {Channels} for the {Earlobe}},
+	volume = {7},
+	shorttitle = {Can {You} {Ear} {Me}?},
+	url = {https://dl.acm.org/doi/10.1145/3610925},
+	doi = {10.1145/3610925},
+	number = {3},
+	urldate = {2024-10-08},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Stanke, Dennis and Duente, Tim and Demir, Kerem Can and Rohs, Michael},
+	month = sep,
+	year = {2023},
+	note = {Number: 3},
+	pages = {123:1--123:23},
+}</t>
+  </si>
+  <si>
+    <t>article{ID461_yi_mordo_2023,
+	title = {Mordo: {Silent} {Command} {Recognition} {Through} {Lightweight} {Around}-{Ear} {Biosensors}},
+	volume = {10},
+	issn = {2327-4662},
+	shorttitle = {Mordo},
+	url = {https://ieeexplore.ieee.org/document/9878163},
+	doi = {10.1109/JIOT.2022.3204336},
+	number = {1},
+	urldate = {2024-10-14},
+	journal = {IEEE Internet of Things Journal},
+	author = {Yi, Chunzhi and Wei, Baichun and Zhu, Jianfei and Rho, Seungmin and Chen, Zhiyuan and Jiang, Feng},
+	month = jan,
+	year = {2023},
+	note = {Number: 1
+Conference Name: IEEE Internet of Things Journal},
+	keywords = {Ear, Headphones, Sensors, EMG signals, Face recognition, micro-interaction, Muscles, silent command recognition, Speech recognition, Task analysis},
+	pages = {763--773},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID619_zhang_toward_2023,
 	address = {New York, NY, USA},
 	series = {{SenSys} '22},
@@ -795,6 +1690,41 @@
 	month = jan,
 	year = {2023},
 	pages = {847--848},
+}</t>
+  </si>
+  <si>
+    <t>article{ID292_zhang_i_2023,
+	title = {I {Am} an {Earphone} and {I} {Can} {Hear} {My} {User}’s {Face}: {Facial} {Landmark} {Tracking} {Using} {Smart} {Earphones}},
+	volume = {5},
+	shorttitle = {I {Am} an {Earphone} and {I} {Can} {Hear} {My} {User}’s {Face}},
+	url = {https://dl.acm.org/doi/10.1145/3614438},
+	doi = {10.1145/3614438},
+	number = {1},
+	urldate = {2024-10-08},
+	journal = {ACM Trans. Internet Things},
+	author = {Zhang, Shijia and Lu, Taiting and Zhou, Hao and Liu, Yilin and Liu, Runze and Gowda, Mahanth},
+	month = dec,
+	year = {2023},
+	note = {Number: 1},
+	pages = {1:1--1:29},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID713_zhang_hpspeech_2023,
+	address = {New York, NY, USA},
+	series = {{ISWC} '23},
+	title = {{HPSpeech}: {Silent} {Speech} {Interface} for {Commodity} {Headphones}},
+	isbn = {979-8-4007-0199-3},
+	shorttitle = {{HPSpeech}},
+	url = {https://dl.acm.org/doi/10.1145/3594738.3611365},
+	doi = {10.1145/3594738.3611365},
+	urldate = {2025-01-07},
+	booktitle = {Proceedings of the 2023 {ACM} {International} {Symposium} on {Wearable} {Computers}},
+	publisher = {Association for Computing Machinery},
+	author = {Zhang, Ruidong and Chen, Hao and Agarwal, Devansh and Jin, Richard and Li, Ke and Guimbretière, François and Zhang, Cheng},
+	month = oct,
+	year = {2023},
+	pages = {60--65},
 }</t>
   </si>
   <si>
@@ -811,6 +1741,24 @@
 	note = {ISSN: 2474-249X},
 	keywords = {Headphones, Prototypes, Performance evaluation, Legged locomotion, Activity recognition, Composite activity recognition, Earable device, Multi-task learning, Multitasking, Pervasive computing},
 	pages = {212--221},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID346_dong_rehearsse_2024,
+	address = {New York, NY, USA},
+	series = {{CHI} '24},
+	title = {{ReHEarSSE}: {Recognizing} {Hidden}-in-the-{Ear} {Silently} {Spelled} {Expressions}},
+	isbn = {979-8-4007-0330-0},
+	shorttitle = {{ReHEarSSE}},
+	url = {https://dl.acm.org/doi/10.1145/3613904.3642095},
+	doi = {10.1145/3613904.3642095},
+	urldate = {2024-10-10},
+	booktitle = {Proceedings of the 2024 {CHI} {Conference} on {Human} {Factors} in {Computing} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Dong, Xuefu and Chen, Yifei and Nishiyama, Yuuki and Sezaki, Kaoru and Wang, Yuntao and Christofferson, Ken and Mariakakis, Alex},
+	month = may,
+	year = {2024},
+	pages = {1--16},
 }</t>
   </si>
   <si>
@@ -833,6 +1781,61 @@
 }</t>
   </si>
   <si>
+    <t>article{ID482_hu_combining_2024,
+	title = {Combining {IMU} {With} {Acoustics} for {Head} {Motion} {Tracking} {Leveraging} {Wireless} {Earphone}},
+	volume = {23},
+	issn = {1558-0660},
+	url = {https://ieeexplore.ieee.org/document/10288089},
+	doi = {10.1109/TMC.2023.3325826},
+	number = {6},
+	urldate = {2024-12-10},
+	journal = {IEEE Transactions on Mobile Computing},
+	author = {Hu, Jingyang and Jiang, Hongbo and Liu, Daibo and Xiao, Zhu and Zhang, Qibo and Liu, Jiangchuan and Dustdar, Schahram},
+	month = jun,
+	year = {2024},
+	note = {Conference Name: IEEE Transactions on Mobile Computing},
+	keywords = {Headphones, Acoustics, Wireless communication, Wireless sensor networks, Distance measurement, head motion tracking, Tracking, Acoustic signal, human-machine interface, Kalman filters},
+	pages = {6835--6847},
+}</t>
+  </si>
+  <si>
+    <t>article{ID509_hu_headtrack_2024,
+	title = {{HeadTrack}: {Real}-{Time} {Human}–{Computer} {Interaction} via {Wireless} {Earphones}},
+	volume = {42},
+	issn = {1558-0008},
+	shorttitle = {{HeadTrack}},
+	url = {https://ieeexplore.ieee.org/document/10373032},
+	doi = {10.1109/JSAC.2023.3345381},
+	number = {4},
+	urldate = {2024-12-09},
+	journal = {IEEE Journal on Selected Areas in Communications},
+	author = {Hu, Jingyang and Jiang, Hongbo and Xiao, Zhu and Chen, Siyu and Dustdar, Schahram and Liu, Jiangchuan},
+	month = apr,
+	year = {2024},
+	note = {Conference Name: IEEE Journal on Selected Areas in Communications},
+	keywords = {Headphones, Acoustics, Wireless communication, Wireless sensor networks, acoustic ranging, acoustic sensing, Distance measurement, head motion tracking, Human–computer interaction, Smart phones, Tracking},
+	pages = {990--1002},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID625_lepold_openearable_2024,
+	address = {New York, NY, USA},
+	series = {{UbiComp} '24},
+	title = {{OpenEarable} {ExG}: {Open}-{Source} {Hardware} for {Ear}-{Based} {Biopotential} {Sensing} {Applications}},
+	isbn = {979-8-4007-1058-2},
+	shorttitle = {{OpenEarable} {ExG}},
+	url = {https://dl.acm.org/doi/10.1145/3675094.3678480},
+	doi = {10.1145/3675094.3678480},
+	urldate = {2024-12-18},
+	booktitle = {Companion of the 2024 on {ACM} {International} {Joint} {Conference} on {Pervasive} and {Ubiquitous} {Computing}},
+	publisher = {Association for Computing Machinery},
+	author = {Lepold, Philipp and Röddiger, Tobias and King, Tobias and Kunze, Kai and Maurer, Christoph and Beigl, Michael},
+	month = oct,
+	year = {2024},
+	pages = {916--920},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID449_ronco_tinyssimoradar_2024,
 	title = {{TinyssimoRadar}: {In}-{Ear} {Hand} {Gesture} {Recognition} with {Ultra}-{Low} {Power} {mmWave} {Radars}},
 	shorttitle = {{TinyssimoRadar}},
@@ -860,6 +1863,95 @@
 	month = sep,
 	year = {2024},
 	pages = {258:1--258:23},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID291_shojaeifard_left_2024,
+	address = {New York, NY, USA},
+	series = {{IoT} '23},
+	title = {Left or right? {Detecting} driver's head movement on the road},
+	isbn = {979-8-4007-0854-1},
+	shorttitle = {Left or right?},
+	url = {https://dl.acm.org/doi/10.1145/3627050.3627067},
+	doi = {10.1145/3627050.3627067},
+	urldate = {2024-12-19},
+	booktitle = {Proceedings of the 13th {International} {Conference} on the {Internet} of {Things}},
+	publisher = {Association for Computing Machinery},
+	author = {Shojaeifard, Leyla and Islam, Adnanul and Shaheen, Hassan and Schroderus, Vappu and Peltonen, Ella},
+	month = mar,
+	year = {2024},
+	pages = {90--97},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID640_srivastava_unvoiced_2024,
+	address = {New York, NY, USA},
+	series = {{SenSys} '24},
+	title = {Unvoiced: {Designing} an {LLM}-assisted {Unvoiced} {User} {Interface} using {Earables}},
+	isbn = {979-8-4007-0697-4},
+	shorttitle = {Unvoiced},
+	url = {https://dl.acm.org/doi/10.1145/3666025.3699374},
+	doi = {10.1145/3666025.3699374},
+	urldate = {2025-01-07},
+	booktitle = {Proceedings of the 22nd {ACM} {Conference} on {Embedded} {Networked} {Sensor} {Systems}},
+	publisher = {Association for Computing Machinery},
+	author = {Srivastava, Tanmay and Khanna, Prerna and Pan, Shijia and Nguyen, Phuc and Jain, Shubham},
+	month = nov,
+	year = {2024},
+	pages = {784--798},
+}</t>
+  </si>
+  <si>
+    <t>article{ID275_shimon_exploring_2024,
+	title = {Exploring {Uni}-manual {Around} {Ear} {Off}-{Device} {Gestures} for {Earables}},
+	volume = {8},
+	url = {https://dl.acm.org/doi/10.1145/3643513},
+	doi = {10.1145/3643513},
+	number = {1},
+	urldate = {2024-10-08},
+	journal = {Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.},
+	author = {Shimon, Shaikh Shawon Arefin and Neshati, Ali and Sun, Junwei and Xu, Qiang and Zhao, Jian},
+	month = mar,
+	year = {2024},
+	note = {Number: 1},
+	pages = {3:1--3:29},
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{ID654_srivastava_whispering_2024,
+	address = {New York, NY, USA},
+	series = {{ICMI} '24},
+	title = {Whispering {Wearables}: {Multimodal} {Approach} to {Silent} {Speech} {Recognition} with {Head}-{Worn} {Devices}},
+	isbn = {979-8-4007-0462-8},
+	shorttitle = {Whispering {Wearables}},
+	url = {https://dl.acm.org/doi/10.1145/3678957.3685720},
+	doi = {10.1145/3678957.3685720},
+	urldate = {2025-01-07},
+	booktitle = {Proceedings of the 26th {International} {Conference} on {Multimodal} {Interaction}},
+	publisher = {Association for Computing Machinery},
+	author = {Srivastava, Tanmay and Winters, R. Michael and Gable, Thomas and Wang, Yu Te and LaScala, Teresa and Tashev, Ivan J.},
+	month = nov,
+	year = {2024},
+	pages = {214--223},
+}</t>
+  </si>
+  <si>
+    <t>article{ID506_sun_earssr_2024,
+	title = {{EarSSR}: {Silent} {Speech} {Recognition} via {Earphones}},
+	volume = {23},
+	issn = {1558-0660},
+	shorttitle = {{EarSSR}},
+	url = {https://ieeexplore.ieee.org/document/10411110},
+	doi = {10.1109/TMC.2024.3356719},
+	number = {8},
+	urldate = {2024-12-09},
+	journal = {IEEE Transactions on Mobile Computing},
+	author = {Sun, Xue and Xiong, Jie and Feng, Chao and Li, Haoyu and Wu, Yuli and Fang, Dingyi and Chen, Xiaojiang},
+	month = aug,
+	year = {2024},
+	note = {Conference Name: IEEE Transactions on Mobile Computing},
+	keywords = {Ear, Headphones, Irrigation, Sensors, Speech recognition, Acoustic sensing, Deformation, earphone, Mouth, silent speech recognition},
+	pages = {8493--8507},
 }</t>
   </si>
   <si>
@@ -931,6 +2023,22 @@
 }</t>
   </si>
   <si>
+    <t>inproceedings{ID675_xie_earpass_2024,
+	title = {{EarPass}: {Unlock} {When} {Wearing} {Your} {Earphones}},
+	shorttitle = {{EarPass}},
+	url = {https://ieeexplore.ieee.org/abstract/document/10631065},
+	doi = {10.1109/ICDCS60910.2024.00121},
+	urldate = {2025-01-07},
+	booktitle = {2024 {IEEE} 44th {International} {Conference} on {Distributed} {Computing} {Systems} ({ICDCS})},
+	author = {Xie, Yanze and Gao, Mengzhen and Liu, Xiaoning and Huana, Shuo and Cui, Helei and Yu, Zhiwen and Guo, Bin},
+	month = jul,
+	year = {2024},
+	note = {ISSN: 2575-8411},
+	keywords = {Headphones, Ubiquitous computing, Authentication, Feature extraction, user authentication, earphones, Energy consumption, head motion, Motion segmentation, System performance, ubiquitous computing},
+	pages = {1283--1293},
+}</t>
+  </si>
+  <si>
     <t>inproceedings{ID354_yang_maf_2024,
 	address = {New York, NY, USA},
 	series = {{CHI} '24},
@@ -946,6 +2054,23 @@
 	month = may,
 	year = {2024},
 	pages = {1--20},
+}</t>
+  </si>
+  <si>
+    <t>article{ID527_yi_mordo2_2024,
+	title = {Mordo2: {A} {Personalization} {Framework} for {Silent} {Command} {Recognition}},
+	volume = {32},
+	issn = {1558-0210},
+	shorttitle = {Mordo2},
+	url = {https://ieeexplore.ieee.org/document/10354427},
+	doi = {10.1109/TNSRE.2023.3342068},
+	urldate = {2024-12-09},
+	journal = {IEEE Transactions on Neural Systems and Rehabilitation Engineering},
+	author = {Yi, Chunzhi and Wei, Baichun and Zhu, Jianfei and Chen, Changbing and Wang, Yuefan and Chen, Zhiyuan and Huang, Yifan and Jiang, Feng},
+	year = {2024},
+	note = {Conference Name: IEEE Transactions on Neural Systems and Rehabilitation Engineering},
+	keywords = {Human computer interaction, Sensors, EMG signals, Muscles, silent command recognition, Transfer learning, Adaptation models, Biological system modeling, Biosensors, user adaptation},
+	pages = {133--143},
 }</t>
   </si>
 </sst>
@@ -1005,11 +2130,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2722A3A-C788-4328-A3F4-132AE51E831A}" name="Tabelle1" displayName="Tabelle1" ref="A1:B54" totalsRowShown="0">
-  <autoFilter ref="A1:B54" xr:uid="{D2722A3A-C788-4328-A3F4-132AE51E831A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15F3F71E-5F14-4F36-BD12-EF8DBC22420E}" name="Tabelle1" displayName="Tabelle1" ref="A1:B119" totalsRowShown="0">
+  <autoFilter ref="A1:B119" xr:uid="{15F3F71E-5F14-4F36-BD12-EF8DBC22420E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{487CDFC9-4D8F-4278-AC35-5CD5ED980AF5}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{230BEDE8-0AA9-4A7F-ABB6-614F77DB605C}" name="Bibtex"/>
+    <tableColumn id="1" xr3:uid="{D99C8DB6-12A6-4AA3-8098-FFEF06F78696}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{477576D2-543C-4CD2-8FBA-133065FAB206}" name="Bibtex"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1331,16 +2456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB4BDB9-A083-4BCE-8143-23F3DE045117}">
-  <dimension ref="A1:B54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D024FC-F189-4140-BB6D-32424F58D85E}">
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="124.84375" customWidth="1"/>
+    <col min="2" max="2" width="121.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -1364,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
@@ -1372,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204" x14ac:dyDescent="0.4">
@@ -1380,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
@@ -1388,20 +2513,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1409,55 +2534,55 @@
     </row>
     <row r="9" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="102" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="204" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1465,15 +2590,15 @@
     </row>
     <row r="16" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1481,39 +2606,39 @@
     </row>
     <row r="18" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -1521,23 +2646,23 @@
     </row>
     <row r="23" spans="1:2" ht="204" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -1545,23 +2670,23 @@
     </row>
     <row r="26" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
@@ -1569,23 +2694,23 @@
     </row>
     <row r="29" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="204" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
@@ -1593,39 +2718,39 @@
     </row>
     <row r="32" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="306" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
@@ -1633,31 +2758,31 @@
     </row>
     <row r="37" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -1665,15 +2790,15 @@
     </row>
     <row r="41" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="306" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -1681,15 +2806,15 @@
     </row>
     <row r="43" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
@@ -1697,39 +2822,39 @@
     </row>
     <row r="45" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
@@ -1737,42 +2862,562 @@
     </row>
     <row r="50" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="204" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="276.89999999999998" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="291.45" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="276.89999999999998" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="262.3" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="204" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
